--- a/wolf/Excel/AIWayPoint_AI路点表.xlsx
+++ b/wolf/Excel/AIWayPoint_AI路点表.xlsx
@@ -34,10 +34,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -50,22 +57,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF1F2329"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
-      <color rgb="FF1F2329"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
+      <sz val="9"/>
+      <color rgb="FF1F2329"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -91,7 +98,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -131,21 +145,24 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,6 +478,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+  <sheetPr>
+    <outlinePr summaryBelow="false" summaryRight="false"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
@@ -469,13 +489,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="26"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="15"/>
   </cols>
   <sheetData>
-    <row customHeight="true" ht="21" r="1">
+    <row customHeight="true" ht="23" r="1">
       <c r="A1" s="4" t="str">
         <v>Int</v>
       </c>
@@ -489,7 +525,7 @@
         <v>Int</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="2">
+    <row customHeight="true" ht="23" r="2">
       <c r="A2" s="4" t="str">
         <v>ID</v>
       </c>
@@ -503,7 +539,7 @@
         <v>Num</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="3">
+    <row customHeight="true" ht="23" r="3">
       <c r="A3" s="4" t="str">
         <v>序号</v>
       </c>
@@ -517,8 +553,8 @@
         <v>数量</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="4"/>
-    <row customHeight="true" ht="21" r="5">
+    <row customHeight="true" ht="23" r="4"/>
+    <row customHeight="true" ht="23" r="5">
       <c r="A5">
         <v>10000</v>
       </c>
@@ -528,7 +564,7 @@
         <v>14</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="6">
+    <row customHeight="true" ht="23" r="6">
       <c r="A6">
         <v>10001</v>
       </c>
@@ -540,7 +576,7 @@
       </c>
       <c r="D6" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="7">
+    <row customHeight="true" ht="23" r="7">
       <c r="A7">
         <v>10002</v>
       </c>
@@ -552,8 +588,8 @@
       </c>
       <c r="D7" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="8">
-      <c r="A8" s="2">
+    <row customHeight="true" ht="23" r="8">
+      <c r="A8" s="3">
         <v>10003</v>
       </c>
       <c r="B8" t="str">
@@ -564,8 +600,8 @@
       </c>
       <c r="D8" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="9">
-      <c r="A9" s="2">
+    <row customHeight="true" ht="23" r="9">
+      <c r="A9" s="3">
         <v>10004</v>
       </c>
       <c r="B9" t="str">
@@ -576,8 +612,8 @@
       </c>
       <c r="D9" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="10">
-      <c r="A10" s="2">
+    <row customHeight="true" ht="23" r="10">
+      <c r="A10" s="3">
         <v>10005</v>
       </c>
       <c r="B10" t="str">
@@ -588,8 +624,8 @@
       </c>
       <c r="D10" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="11">
-      <c r="A11" s="3">
+    <row customHeight="true" ht="23" r="11">
+      <c r="A11" s="5">
         <v>10006</v>
       </c>
       <c r="B11" t="str">
@@ -600,8 +636,8 @@
       </c>
       <c r="D11" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="12">
-      <c r="A12" s="3">
+    <row customHeight="true" ht="23" r="12">
+      <c r="A12" s="5">
         <v>10007</v>
       </c>
       <c r="B12" t="str">
@@ -612,8 +648,8 @@
       </c>
       <c r="D12" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="13">
-      <c r="A13" s="2">
+    <row customHeight="true" ht="23" r="13">
+      <c r="A13" s="3">
         <v>10008</v>
       </c>
       <c r="B13" t="str">
@@ -624,8 +660,8 @@
       </c>
       <c r="D13" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="14">
-      <c r="A14" s="3">
+    <row customHeight="true" ht="23" r="14">
+      <c r="A14" s="5">
         <v>10009</v>
       </c>
       <c r="B14" t="str">
@@ -636,8 +672,8 @@
       </c>
       <c r="D14" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="15">
-      <c r="A15" s="2">
+    <row customHeight="true" ht="23" r="15">
+      <c r="A15" s="3">
         <v>10010</v>
       </c>
       <c r="B15" t="str">
@@ -648,7 +684,7 @@
       </c>
       <c r="D15" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="16">
+    <row customHeight="true" ht="23" r="16">
       <c r="A16">
         <v>10011</v>
       </c>
@@ -660,7 +696,7 @@
       </c>
       <c r="D16" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="17">
+    <row customHeight="true" ht="23" r="17">
       <c r="A17">
         <v>10012</v>
       </c>
@@ -672,7 +708,7 @@
       </c>
       <c r="D17" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="18">
+    <row customHeight="true" ht="23" r="18">
       <c r="A18">
         <v>10013</v>
       </c>
@@ -684,7 +720,7 @@
       </c>
       <c r="D18" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="19">
+    <row customHeight="true" ht="23" r="19">
       <c r="A19">
         <v>10014</v>
       </c>
@@ -696,7 +732,7 @@
       </c>
       <c r="D19" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="20">
+    <row customHeight="true" ht="23" r="20">
       <c r="A20">
         <v>20000</v>
       </c>
@@ -704,7 +740,7 @@
         <v>14</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="21">
+    <row customHeight="true" ht="23" r="21">
       <c r="A21">
         <v>20001</v>
       </c>
@@ -715,7 +751,7 @@
         <v>5|6|1</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="22">
+    <row customHeight="true" ht="23" r="22">
       <c r="A22">
         <v>20002</v>
       </c>
@@ -726,7 +762,7 @@
         <v>5|9|1</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="23">
+    <row customHeight="true" ht="23" r="23">
       <c r="A23">
         <v>20003</v>
       </c>
@@ -737,7 +773,7 @@
         <v>5|4|1</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="24">
+    <row customHeight="true" ht="23" r="24">
       <c r="A24">
         <v>20004</v>
       </c>
@@ -748,7 +784,7 @@
         <v>2|3|1</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="25">
+    <row customHeight="true" ht="23" r="25">
       <c r="A25">
         <v>20005</v>
       </c>
@@ -759,7 +795,7 @@
         <v>2|1|1</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="26">
+    <row customHeight="true" ht="23" r="26">
       <c r="A26">
         <v>20006</v>
       </c>
@@ -770,7 +806,7 @@
         <v>2|2|1</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="27">
+    <row customHeight="true" ht="23" r="27">
       <c r="A27">
         <v>20007</v>
       </c>
@@ -781,7 +817,7 @@
         <v>7|3|1</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="28">
+    <row customHeight="true" ht="23" r="28">
       <c r="A28">
         <v>20008</v>
       </c>
@@ -792,7 +828,7 @@
         <v>1|3|1</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="29">
+    <row customHeight="true" ht="23" r="29">
       <c r="A29">
         <v>20009</v>
       </c>
@@ -803,7 +839,7 @@
         <v>6|2|1</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="30">
+    <row customHeight="true" ht="23" r="30">
       <c r="A30">
         <v>20010</v>
       </c>
@@ -814,7 +850,7 @@
         <v>2|2|1</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="31">
+    <row customHeight="true" ht="23" r="31">
       <c r="A31">
         <v>20011</v>
       </c>
@@ -825,7 +861,7 @@
         <v>1|2|1</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="32">
+    <row customHeight="true" ht="23" r="32">
       <c r="A32">
         <v>20012</v>
       </c>
@@ -836,7 +872,7 @@
         <v>1|7|1</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="33">
+    <row customHeight="true" ht="23" r="33">
       <c r="A33">
         <v>20013</v>
       </c>
@@ -847,7 +883,7 @@
         <v>2|1|1</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="34">
+    <row customHeight="true" ht="23" r="34">
       <c r="A34">
         <v>20014</v>
       </c>
@@ -858,189 +894,221 @@
         <v>0.5|1|1</v>
       </c>
     </row>
-    <row customHeight="true" ht="22" r="35">
+    <row customHeight="true" ht="24" r="35">
       <c r="A35" s="1">
         <v>30000</v>
       </c>
       <c r="D35" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>18</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="21" r="36">
       <c r="A36" s="1">
         <v>30001</v>
       </c>
-      <c r="B36" s="1" t="str">
-        <v>985|14686|35</v>
+      <c r="B36" s="2" t="str">
+        <v>26591|30296|368</v>
       </c>
       <c r="C36" s="1" t="str">
         <v>1|1|1</v>
       </c>
     </row>
-    <row r="37">
+    <row customHeight="true" ht="21" r="37">
       <c r="A37" s="1">
         <v>30002</v>
       </c>
-      <c r="B37" s="1" t="str">
-        <v>2601|14525|35</v>
+      <c r="B37" s="2" t="str">
+        <v>29229|29704|368</v>
       </c>
       <c r="C37" s="1" t="str">
         <v>1|1|1</v>
       </c>
     </row>
-    <row r="38">
+    <row customHeight="true" ht="21" r="38">
       <c r="A38" s="1">
         <v>30003</v>
       </c>
-      <c r="B38" s="1" t="str">
-        <v>2101|13240|35</v>
+      <c r="B38" s="2" t="str">
+        <v>30151|31049|-2</v>
       </c>
       <c r="C38" s="1" t="str">
         <v>1|1|1</v>
       </c>
     </row>
-    <row r="39">
+    <row customHeight="true" ht="21" r="39">
       <c r="A39" s="1">
         <v>30004</v>
       </c>
-      <c r="B39" s="1" t="str">
-        <v>3795|13799|35</v>
+      <c r="B39" s="2" t="str">
+        <v>28166|31968|-2</v>
       </c>
       <c r="C39" s="1" t="str">
         <v>1|1|1</v>
       </c>
     </row>
-    <row r="40">
+    <row customHeight="true" ht="21" r="40">
       <c r="A40" s="1">
         <v>30005</v>
       </c>
-      <c r="B40" s="1" t="str">
-        <v>4735|15233|35</v>
+      <c r="B40" s="2" t="str">
+        <v>27843|33329|-3</v>
       </c>
       <c r="C40" s="1" t="str">
         <v>1|1|1</v>
       </c>
     </row>
-    <row r="41">
+    <row customHeight="true" ht="21" r="41">
       <c r="A41" s="1">
         <v>30006</v>
       </c>
-      <c r="B41" s="1" t="str">
-        <v>5315|16041|35</v>
+      <c r="B41" s="2" t="str">
+        <v>28472|33580|40</v>
       </c>
       <c r="C41" s="1" t="str">
         <v>1|1|1</v>
       </c>
     </row>
-    <row r="42">
+    <row customHeight="true" ht="21" r="42">
       <c r="A42" s="1">
         <v>30007</v>
       </c>
-      <c r="B42" s="1" t="str">
-        <v>4489|14667|35</v>
+      <c r="B42" s="2" t="str">
+        <v>26835|31626|-3</v>
       </c>
       <c r="C42" s="1" t="str">
         <v>1|1|1</v>
       </c>
     </row>
-    <row r="43">
+    <row customHeight="true" ht="21" r="43">
       <c r="A43" s="1">
         <v>30008</v>
       </c>
-      <c r="B43" s="1" t="str">
-        <v>5684|14270|35</v>
+      <c r="B43" s="2" t="str">
+        <v>26731|28274|-90</v>
       </c>
       <c r="C43" s="1" t="str">
         <v>1|1|1</v>
       </c>
     </row>
-    <row r="44">
+    <row customHeight="true" ht="21" r="44">
       <c r="A44" s="1">
         <v>30009</v>
       </c>
-      <c r="B44" s="1" t="str">
-        <v>1694|13495|35</v>
+      <c r="B44" s="2" t="str">
+        <v>28117|27225|-99</v>
       </c>
       <c r="C44" s="1" t="str">
         <v>1|1|1</v>
       </c>
     </row>
-    <row r="45">
+    <row customHeight="true" ht="21" r="45">
       <c r="A45" s="1">
         <v>30010</v>
       </c>
-      <c r="B45" s="1" t="str">
-        <v>3512|11796|35</v>
+      <c r="B45" s="2" t="str">
+        <v>299895|28030|-5</v>
       </c>
       <c r="C45" s="1" t="str">
         <v>1|1|1</v>
       </c>
     </row>
-    <row r="46">
+    <row customHeight="true" ht="21" r="46">
       <c r="A46" s="1">
         <v>30011</v>
       </c>
-      <c r="B46" s="1" t="str">
-        <v>4113|11831|35</v>
+      <c r="B46" s="2" t="str">
+        <v>28010|29258|242</v>
       </c>
       <c r="C46" s="1" t="str">
         <v>1|1|1</v>
       </c>
     </row>
-    <row r="47">
+    <row customHeight="true" ht="21" r="47">
       <c r="A47" s="1">
         <v>30012</v>
       </c>
-      <c r="B47" s="1" t="str">
-        <v>3111|12086|35</v>
+      <c r="B47" s="2" t="str">
+        <v>28311|30730|123</v>
       </c>
       <c r="C47" s="1" t="str">
         <v>1|1|1</v>
       </c>
     </row>
-    <row r="48">
+    <row customHeight="true" ht="21" r="48">
       <c r="A48" s="1">
         <v>30013</v>
       </c>
-      <c r="B48" s="1" t="str">
-        <v>1496|12493|35</v>
+      <c r="B48" s="2" t="str">
+        <v>28975|31292|-5</v>
       </c>
       <c r="C48" s="1" t="str">
         <v>1|1|1</v>
       </c>
     </row>
-    <row r="49">
+    <row customHeight="true" ht="21" r="49">
       <c r="A49" s="1">
         <v>30014</v>
       </c>
-      <c r="B49" s="1" t="str">
-        <v>2141|11850|35</v>
+      <c r="B49" s="2" t="str">
+        <v>27069|29265|242</v>
       </c>
       <c r="C49" s="1" t="str">
         <v>1|1|1</v>
       </c>
     </row>
-    <row r="50">
+    <row customHeight="true" ht="21" r="50">
       <c r="A50" s="1">
         <v>30015</v>
       </c>
-      <c r="B50" s="1" t="str">
-        <v>899|11993|35</v>
+      <c r="B50" s="2" t="str">
+        <v>29117|28511|-5</v>
       </c>
       <c r="C50" s="1" t="str">
         <v>1|1|1</v>
       </c>
     </row>
-    <row r="51">
+    <row customHeight="true" ht="21" r="51">
       <c r="A51" s="1">
         <v>30016</v>
       </c>
-      <c r="B51" s="1" t="str">
-        <v>1257|13326|35</v>
+      <c r="B51" s="2" t="str">
+        <v>30222|27277|-5</v>
       </c>
       <c r="C51" s="1" t="str">
         <v>1|1|1</v>
       </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1">
+        <v>30017</v>
+      </c>
+      <c r="B52" s="2" t="str">
+        <v>302405|29223|-2</v>
+      </c>
+      <c r="C52" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1">
+        <v>30018</v>
+      </c>
+      <c r="B53" s="2" t="str">
+        <v>30242|30286|368</v>
+      </c>
+      <c r="C53" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/wolf/Excel/AIWayPoint_AI路点表.xlsx
+++ b/wolf/Excel/AIWayPoint_AI路点表.xlsx
@@ -34,10 +34,24 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F2329"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -50,22 +64,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
-      <color rgb="FF1F2329"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -91,7 +98,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -131,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -146,6 +160,9 @@
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,6 +478,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+  <sheetPr>
+    <outlinePr summaryBelow="false" summaryRight="false"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
@@ -469,13 +489,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="26"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="15"/>
   </cols>
   <sheetData>
-    <row customHeight="true" ht="21" r="1">
+    <row customHeight="true" ht="23" r="1">
       <c r="A1" s="4" t="str">
         <v>Int</v>
       </c>
@@ -489,7 +525,7 @@
         <v>Int</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="2">
+    <row customHeight="true" ht="23" r="2">
       <c r="A2" s="4" t="str">
         <v>ID</v>
       </c>
@@ -503,7 +539,7 @@
         <v>Num</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="3">
+    <row customHeight="true" ht="23" r="3">
       <c r="A3" s="4" t="str">
         <v>序号</v>
       </c>
@@ -517,8 +553,8 @@
         <v>数量</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="4"/>
-    <row customHeight="true" ht="21" r="5">
+    <row customHeight="true" ht="23" r="4"/>
+    <row customHeight="true" ht="23" r="5">
       <c r="A5">
         <v>10000</v>
       </c>
@@ -528,7 +564,7 @@
         <v>14</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="6">
+    <row customHeight="true" ht="23" r="6">
       <c r="A6">
         <v>10001</v>
       </c>
@@ -540,7 +576,7 @@
       </c>
       <c r="D6" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="7">
+    <row customHeight="true" ht="23" r="7">
       <c r="A7">
         <v>10002</v>
       </c>
@@ -552,7 +588,7 @@
       </c>
       <c r="D7" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="8">
+    <row customHeight="true" ht="23" r="8">
       <c r="A8" s="2">
         <v>10003</v>
       </c>
@@ -564,7 +600,7 @@
       </c>
       <c r="D8" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="9">
+    <row customHeight="true" ht="23" r="9">
       <c r="A9" s="2">
         <v>10004</v>
       </c>
@@ -576,7 +612,7 @@
       </c>
       <c r="D9" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="10">
+    <row customHeight="true" ht="23" r="10">
       <c r="A10" s="2">
         <v>10005</v>
       </c>
@@ -588,8 +624,8 @@
       </c>
       <c r="D10" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="11">
-      <c r="A11" s="3">
+    <row customHeight="true" ht="23" r="11">
+      <c r="A11" s="5">
         <v>10006</v>
       </c>
       <c r="B11" t="str">
@@ -600,8 +636,8 @@
       </c>
       <c r="D11" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="12">
-      <c r="A12" s="3">
+    <row customHeight="true" ht="23" r="12">
+      <c r="A12" s="5">
         <v>10007</v>
       </c>
       <c r="B12" t="str">
@@ -612,7 +648,7 @@
       </c>
       <c r="D12" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="13">
+    <row customHeight="true" ht="23" r="13">
       <c r="A13" s="2">
         <v>10008</v>
       </c>
@@ -624,8 +660,8 @@
       </c>
       <c r="D13" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="14">
-      <c r="A14" s="3">
+    <row customHeight="true" ht="23" r="14">
+      <c r="A14" s="5">
         <v>10009</v>
       </c>
       <c r="B14" t="str">
@@ -636,7 +672,7 @@
       </c>
       <c r="D14" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="15">
+    <row customHeight="true" ht="23" r="15">
       <c r="A15" s="2">
         <v>10010</v>
       </c>
@@ -648,7 +684,7 @@
       </c>
       <c r="D15" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="16">
+    <row customHeight="true" ht="23" r="16">
       <c r="A16">
         <v>10011</v>
       </c>
@@ -660,7 +696,7 @@
       </c>
       <c r="D16" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="17">
+    <row customHeight="true" ht="23" r="17">
       <c r="A17">
         <v>10012</v>
       </c>
@@ -672,7 +708,7 @@
       </c>
       <c r="D17" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="18">
+    <row customHeight="true" ht="23" r="18">
       <c r="A18">
         <v>10013</v>
       </c>
@@ -684,7 +720,7 @@
       </c>
       <c r="D18" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="19">
+    <row customHeight="true" ht="23" r="19">
       <c r="A19">
         <v>10014</v>
       </c>
@@ -696,7 +732,7 @@
       </c>
       <c r="D19" t="str"/>
     </row>
-    <row customHeight="true" ht="21" r="20">
+    <row customHeight="true" ht="23" r="20">
       <c r="A20">
         <v>20000</v>
       </c>
@@ -704,161 +740,162 @@
         <v>14</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="21">
+    <row customHeight="true" ht="23" r="21">
       <c r="A21">
         <v>20001</v>
       </c>
-      <c r="B21" t="str">
-        <v>-11330|11295|65</v>
-      </c>
-      <c r="C21" t="str">
-        <v>5|6|1</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="21" r="22">
+      <c r="B21" s="3" t="str">
+        <v>-21450|20000|106</v>
+      </c>
+      <c r="C21" s="3" t="str">
+        <v>4|4|1</v>
+      </c>
+      <c r="D21" s="3"/>
+    </row>
+    <row customHeight="true" ht="23" r="22">
       <c r="A22">
         <v>20002</v>
       </c>
-      <c r="B22" t="str">
-        <v>-11330|12070|65</v>
-      </c>
-      <c r="C22" t="str">
-        <v>5|9|1</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="21" r="23">
+      <c r="B22" s="3" t="str">
+        <v>-20467|20615|103</v>
+      </c>
+      <c r="C22" s="3" t="str">
+        <v>3|3|1</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="23">
       <c r="A23">
         <v>20003</v>
       </c>
-      <c r="B23" t="str">
-        <v>-11155|13270|65</v>
-      </c>
-      <c r="C23" t="str">
-        <v>5|4|1</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="21" r="24">
+      <c r="B23" s="3" t="str">
+        <v>-19671|21137|104</v>
+      </c>
+      <c r="C23" s="3" t="str">
+        <v>2|2|1</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="24">
       <c r="A24">
         <v>20004</v>
       </c>
-      <c r="B24" t="str">
-        <v>-10585|14065|65</v>
-      </c>
-      <c r="C24" t="str">
-        <v>2|3|1</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="21" r="25">
+      <c r="B24" s="3" t="str">
+        <v>-19223|20691|103</v>
+      </c>
+      <c r="C24" s="3" t="str">
+        <v>4|4|1</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="25">
       <c r="A25">
         <v>20005</v>
       </c>
-      <c r="B25" t="str">
-        <v>-10185|14460|75</v>
-      </c>
-      <c r="C25" t="str">
-        <v>2|1|1</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="21" r="26">
+      <c r="B25" s="3" t="str">
+        <v>-19844|20423|110</v>
+      </c>
+      <c r="C25" s="3" t="str">
+        <v>4|4|1</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="26">
       <c r="A26">
         <v>20006</v>
       </c>
-      <c r="B26" t="str">
-        <v>-11825|13915|65</v>
+      <c r="B26" s="3" t="str">
+        <v>-19275|20186|106</v>
       </c>
       <c r="C26" t="str">
         <v>2|2|1</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="27">
+    <row customHeight="true" ht="23" r="27">
       <c r="A27">
         <v>20007</v>
       </c>
-      <c r="B27" t="str">
-        <v>-13460|14145|90</v>
-      </c>
-      <c r="C27" t="str">
-        <v>7|3|1</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="21" r="28">
+      <c r="B27" s="3" t="str">
+        <v>-18427|20049|104</v>
+      </c>
+      <c r="C27" s="3" t="str">
+        <v>1|1|1</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="28">
       <c r="A28">
         <v>20008</v>
       </c>
-      <c r="B28" t="str">
-        <v>-13955|13325|90</v>
-      </c>
-      <c r="C28" t="str">
-        <v>1|3|1</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="21" r="29">
+      <c r="B28" s="3" t="str">
+        <v>-19442|19417|103</v>
+      </c>
+      <c r="C28" s="3" t="str">
+        <v>1|1|1</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="29">
       <c r="A29">
         <v>20009</v>
       </c>
-      <c r="B29" t="str">
-        <v>-13610|11495|90</v>
-      </c>
-      <c r="C29" t="str">
-        <v>6|2|1</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="21" r="30">
+      <c r="B29" s="3" t="str">
+        <v>-18947|18825|100</v>
+      </c>
+      <c r="C29" s="3" t="str">
+        <v>1|1|1</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="30">
       <c r="A30">
         <v>20010</v>
       </c>
-      <c r="B30" t="str">
-        <v>-12900|11510|95</v>
-      </c>
-      <c r="C30" t="str">
-        <v>2|2|1</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="21" r="31">
+      <c r="B30" s="3" t="str">
+        <v>-21192|19129|210</v>
+      </c>
+      <c r="C30" s="3" t="str">
+        <v>1|1|1</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="31">
       <c r="A31">
         <v>20011</v>
       </c>
-      <c r="B31" t="str">
-        <v>-12750|10550|65</v>
-      </c>
-      <c r="C31" t="str">
-        <v>1|2|1</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="21" r="32">
+      <c r="B31" s="3" t="str">
+        <v>-20680|19789|109</v>
+      </c>
+      <c r="C31" s="3" t="str">
+        <v>3|3|1</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="32">
       <c r="A32">
         <v>20012</v>
       </c>
-      <c r="B32" t="str">
-        <v>-9845|12185|65</v>
-      </c>
-      <c r="C32" t="str">
-        <v>1|7|1</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="21" r="33">
+      <c r="B32" s="3" t="str">
+        <v>-19995|19649|106</v>
+      </c>
+      <c r="C32" s="3" t="str">
+        <v>3|3|1</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="33">
       <c r="A33">
         <v>20013</v>
       </c>
-      <c r="B33" t="str">
-        <v>-13560|13125|90</v>
-      </c>
-      <c r="C33" t="str">
-        <v>2|1|1</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="21" r="34">
+      <c r="B33" s="3" t="str">
+        <v>-20067|19034|107</v>
+      </c>
+      <c r="C33" s="3" t="str">
+        <v>1|1|1</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="23" r="34">
       <c r="A34">
         <v>20014</v>
       </c>
-      <c r="B34" t="str">
-        <v>-12045|12480|90</v>
-      </c>
-      <c r="C34" t="str">
-        <v>0.5|1|1</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="22" r="35">
+      <c r="B34" s="3" t="str">
+        <v>-20300|20089|106</v>
+      </c>
+      <c r="C34" s="3" t="str">
+        <v>1|1|1</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="24" r="35">
       <c r="A35" s="1">
         <v>30000</v>
       </c>
@@ -866,7 +903,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36">
+    <row customHeight="true" ht="21" r="36">
       <c r="A36" s="1">
         <v>30001</v>
       </c>
@@ -877,7 +914,7 @@
         <v>1|1|1</v>
       </c>
     </row>
-    <row r="37">
+    <row customHeight="true" ht="21" r="37">
       <c r="A37" s="1">
         <v>30002</v>
       </c>
@@ -888,7 +925,7 @@
         <v>1|1|1</v>
       </c>
     </row>
-    <row r="38">
+    <row customHeight="true" ht="21" r="38">
       <c r="A38" s="1">
         <v>30003</v>
       </c>
@@ -899,7 +936,7 @@
         <v>1|1|1</v>
       </c>
     </row>
-    <row r="39">
+    <row customHeight="true" ht="21" r="39">
       <c r="A39" s="1">
         <v>30004</v>
       </c>
@@ -910,7 +947,7 @@
         <v>1|1|1</v>
       </c>
     </row>
-    <row r="40">
+    <row customHeight="true" ht="21" r="40">
       <c r="A40" s="1">
         <v>30005</v>
       </c>
@@ -921,7 +958,7 @@
         <v>1|1|1</v>
       </c>
     </row>
-    <row r="41">
+    <row customHeight="true" ht="21" r="41">
       <c r="A41" s="1">
         <v>30006</v>
       </c>
@@ -932,7 +969,7 @@
         <v>1|1|1</v>
       </c>
     </row>
-    <row r="42">
+    <row customHeight="true" ht="21" r="42">
       <c r="A42" s="1">
         <v>30007</v>
       </c>
@@ -943,7 +980,7 @@
         <v>1|1|1</v>
       </c>
     </row>
-    <row r="43">
+    <row customHeight="true" ht="21" r="43">
       <c r="A43" s="1">
         <v>30008</v>
       </c>
@@ -954,7 +991,7 @@
         <v>1|1|1</v>
       </c>
     </row>
-    <row r="44">
+    <row customHeight="true" ht="21" r="44">
       <c r="A44" s="1">
         <v>30009</v>
       </c>
@@ -965,7 +1002,7 @@
         <v>1|1|1</v>
       </c>
     </row>
-    <row r="45">
+    <row customHeight="true" ht="21" r="45">
       <c r="A45" s="1">
         <v>30010</v>
       </c>
@@ -976,7 +1013,7 @@
         <v>1|1|1</v>
       </c>
     </row>
-    <row r="46">
+    <row customHeight="true" ht="21" r="46">
       <c r="A46" s="1">
         <v>30011</v>
       </c>
@@ -987,7 +1024,7 @@
         <v>1|1|1</v>
       </c>
     </row>
-    <row r="47">
+    <row customHeight="true" ht="21" r="47">
       <c r="A47" s="1">
         <v>30012</v>
       </c>
@@ -998,7 +1035,7 @@
         <v>1|1|1</v>
       </c>
     </row>
-    <row r="48">
+    <row customHeight="true" ht="21" r="48">
       <c r="A48" s="1">
         <v>30013</v>
       </c>
@@ -1009,7 +1046,7 @@
         <v>1|1|1</v>
       </c>
     </row>
-    <row r="49">
+    <row customHeight="true" ht="21" r="49">
       <c r="A49" s="1">
         <v>30014</v>
       </c>
@@ -1020,7 +1057,7 @@
         <v>1|1|1</v>
       </c>
     </row>
-    <row r="50">
+    <row customHeight="true" ht="21" r="50">
       <c r="A50" s="1">
         <v>30015</v>
       </c>
@@ -1031,7 +1068,7 @@
         <v>1|1|1</v>
       </c>
     </row>
-    <row r="51">
+    <row customHeight="true" ht="21" r="51">
       <c r="A51" s="1">
         <v>30016</v>
       </c>

--- a/wolf/Excel/AIWayPoint_AI路点表.xlsx
+++ b/wolf/Excel/AIWayPoint_AI路点表.xlsx
@@ -44,6 +44,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF1F2329"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -51,13 +58,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -152,7 +152,7 @@
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
@@ -161,7 +161,7 @@
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="2" fontId="5" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -589,7 +589,7 @@
       <c r="D7" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="8">
-      <c r="A8" s="2">
+      <c r="A8" s="5">
         <v>10003</v>
       </c>
       <c r="B8" t="str">
@@ -601,7 +601,7 @@
       <c r="D8" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="9">
-      <c r="A9" s="2">
+      <c r="A9" s="5">
         <v>10004</v>
       </c>
       <c r="B9" t="str">
@@ -613,7 +613,7 @@
       <c r="D9" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="10">
-      <c r="A10" s="2">
+      <c r="A10" s="5">
         <v>10005</v>
       </c>
       <c r="B10" t="str">
@@ -625,7 +625,7 @@
       <c r="D10" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="11">
-      <c r="A11" s="5">
+      <c r="A11" s="1">
         <v>10006</v>
       </c>
       <c r="B11" t="str">
@@ -637,7 +637,7 @@
       <c r="D11" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="12">
-      <c r="A12" s="5">
+      <c r="A12" s="1">
         <v>10007</v>
       </c>
       <c r="B12" t="str">
@@ -649,7 +649,7 @@
       <c r="D12" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="13">
-      <c r="A13" s="2">
+      <c r="A13" s="5">
         <v>10008</v>
       </c>
       <c r="B13" t="str">
@@ -661,7 +661,7 @@
       <c r="D13" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="14">
-      <c r="A14" s="5">
+      <c r="A14" s="1">
         <v>10009</v>
       </c>
       <c r="B14" t="str">
@@ -673,7 +673,7 @@
       <c r="D14" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="15">
-      <c r="A15" s="2">
+      <c r="A15" s="5">
         <v>10010</v>
       </c>
       <c r="B15" t="str">
@@ -744,22 +744,22 @@
       <c r="A21">
         <v>20001</v>
       </c>
-      <c r="B21" s="3" t="str">
+      <c r="B21" s="2" t="str">
         <v>-21450|20000|106</v>
       </c>
-      <c r="C21" s="3" t="str">
+      <c r="C21" s="2" t="str">
         <v>4|4|1</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="2"/>
     </row>
     <row customHeight="true" ht="23" r="22">
       <c r="A22">
         <v>20002</v>
       </c>
-      <c r="B22" s="3" t="str">
+      <c r="B22" s="2" t="str">
         <v>-20467|20615|103</v>
       </c>
-      <c r="C22" s="3" t="str">
+      <c r="C22" s="2" t="str">
         <v>3|3|1</v>
       </c>
     </row>
@@ -767,10 +767,10 @@
       <c r="A23">
         <v>20003</v>
       </c>
-      <c r="B23" s="3" t="str">
+      <c r="B23" s="2" t="str">
         <v>-19671|21137|104</v>
       </c>
-      <c r="C23" s="3" t="str">
+      <c r="C23" s="2" t="str">
         <v>2|2|1</v>
       </c>
     </row>
@@ -778,10 +778,10 @@
       <c r="A24">
         <v>20004</v>
       </c>
-      <c r="B24" s="3" t="str">
+      <c r="B24" s="2" t="str">
         <v>-19223|20691|103</v>
       </c>
-      <c r="C24" s="3" t="str">
+      <c r="C24" s="2" t="str">
         <v>4|4|1</v>
       </c>
     </row>
@@ -789,10 +789,10 @@
       <c r="A25">
         <v>20005</v>
       </c>
-      <c r="B25" s="3" t="str">
+      <c r="B25" s="2" t="str">
         <v>-19844|20423|110</v>
       </c>
-      <c r="C25" s="3" t="str">
+      <c r="C25" s="2" t="str">
         <v>4|4|1</v>
       </c>
     </row>
@@ -800,7 +800,7 @@
       <c r="A26">
         <v>20006</v>
       </c>
-      <c r="B26" s="3" t="str">
+      <c r="B26" s="2" t="str">
         <v>-19275|20186|106</v>
       </c>
       <c r="C26" t="str">
@@ -811,10 +811,10 @@
       <c r="A27">
         <v>20007</v>
       </c>
-      <c r="B27" s="3" t="str">
+      <c r="B27" s="2" t="str">
         <v>-18427|20049|104</v>
       </c>
-      <c r="C27" s="3" t="str">
+      <c r="C27" s="2" t="str">
         <v>1|1|1</v>
       </c>
     </row>
@@ -822,10 +822,10 @@
       <c r="A28">
         <v>20008</v>
       </c>
-      <c r="B28" s="3" t="str">
+      <c r="B28" s="2" t="str">
         <v>-19442|19417|103</v>
       </c>
-      <c r="C28" s="3" t="str">
+      <c r="C28" s="2" t="str">
         <v>1|1|1</v>
       </c>
     </row>
@@ -833,10 +833,10 @@
       <c r="A29">
         <v>20009</v>
       </c>
-      <c r="B29" s="3" t="str">
+      <c r="B29" s="2" t="str">
         <v>-18947|18825|100</v>
       </c>
-      <c r="C29" s="3" t="str">
+      <c r="C29" s="2" t="str">
         <v>1|1|1</v>
       </c>
     </row>
@@ -844,10 +844,10 @@
       <c r="A30">
         <v>20010</v>
       </c>
-      <c r="B30" s="3" t="str">
+      <c r="B30" s="2" t="str">
         <v>-21192|19129|210</v>
       </c>
-      <c r="C30" s="3" t="str">
+      <c r="C30" s="2" t="str">
         <v>1|1|1</v>
       </c>
     </row>
@@ -855,10 +855,10 @@
       <c r="A31">
         <v>20011</v>
       </c>
-      <c r="B31" s="3" t="str">
+      <c r="B31" s="2" t="str">
         <v>-20680|19789|109</v>
       </c>
-      <c r="C31" s="3" t="str">
+      <c r="C31" s="2" t="str">
         <v>3|3|1</v>
       </c>
     </row>
@@ -866,10 +866,10 @@
       <c r="A32">
         <v>20012</v>
       </c>
-      <c r="B32" s="3" t="str">
+      <c r="B32" s="2" t="str">
         <v>-19995|19649|106</v>
       </c>
-      <c r="C32" s="3" t="str">
+      <c r="C32" s="2" t="str">
         <v>3|3|1</v>
       </c>
     </row>
@@ -877,10 +877,10 @@
       <c r="A33">
         <v>20013</v>
       </c>
-      <c r="B33" s="3" t="str">
+      <c r="B33" s="2" t="str">
         <v>-20067|19034|107</v>
       </c>
-      <c r="C33" s="3" t="str">
+      <c r="C33" s="2" t="str">
         <v>1|1|1</v>
       </c>
     </row>
@@ -888,194 +888,194 @@
       <c r="A34">
         <v>20014</v>
       </c>
-      <c r="B34" s="3" t="str">
+      <c r="B34" s="2" t="str">
         <v>-20300|20089|106</v>
       </c>
-      <c r="C34" s="3" t="str">
+      <c r="C34" s="2" t="str">
         <v>1|1|1</v>
       </c>
     </row>
     <row customHeight="true" ht="24" r="35">
-      <c r="A35" s="1">
+      <c r="A35" s="3">
         <v>30000</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="3">
         <v>16</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="36">
-      <c r="A36" s="1">
+      <c r="A36" s="3">
         <v>30001</v>
       </c>
-      <c r="B36" s="1" t="str">
-        <v>985|14686|35</v>
-      </c>
-      <c r="C36" s="1" t="str">
+      <c r="B36" t="str">
+        <v>11244|12584|9343</v>
+      </c>
+      <c r="C36" s="3" t="str">
         <v>1|1|1</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="37">
-      <c r="A37" s="1">
+      <c r="A37" s="3">
         <v>30002</v>
       </c>
-      <c r="B37" s="1" t="str">
-        <v>2601|14525|35</v>
-      </c>
-      <c r="C37" s="1" t="str">
+      <c r="B37" t="str">
+        <v>12728|14125|9124</v>
+      </c>
+      <c r="C37" s="3" t="str">
         <v>1|1|1</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="38">
-      <c r="A38" s="1">
+      <c r="A38" s="3">
         <v>30003</v>
       </c>
-      <c r="B38" s="1" t="str">
-        <v>2101|13240|35</v>
-      </c>
-      <c r="C38" s="1" t="str">
+      <c r="B38" t="str">
+        <v>11924|14680|11593</v>
+      </c>
+      <c r="C38" s="3" t="str">
         <v>1|1|1</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="39">
-      <c r="A39" s="1">
+      <c r="A39" s="3">
         <v>30004</v>
       </c>
-      <c r="B39" s="1" t="str">
-        <v>3795|13799|35</v>
-      </c>
-      <c r="C39" s="1" t="str">
+      <c r="B39" t="str">
+        <v>14056|12188|11593</v>
+      </c>
+      <c r="C39" s="3" t="str">
         <v>1|1|1</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="40">
-      <c r="A40" s="1">
+      <c r="A40" s="3">
         <v>30005</v>
       </c>
-      <c r="B40" s="1" t="str">
-        <v>4735|15233|35</v>
-      </c>
-      <c r="C40" s="1" t="str">
+      <c r="B40" t="str">
+        <v>11062|16477|9121</v>
+      </c>
+      <c r="C40" s="3" t="str">
         <v>1|1|1</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="41">
-      <c r="A41" s="1">
+      <c r="A41" s="3">
         <v>30006</v>
       </c>
-      <c r="B41" s="1" t="str">
-        <v>5315|16041|35</v>
-      </c>
-      <c r="C41" s="1" t="str">
+      <c r="B41" t="str">
+        <v>13429|18672|9119</v>
+      </c>
+      <c r="C41" s="3" t="str">
         <v>1|1|1</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="42">
-      <c r="A42" s="1">
+      <c r="A42" s="3">
         <v>30007</v>
       </c>
-      <c r="B42" s="1" t="str">
-        <v>4489|14667|35</v>
-      </c>
-      <c r="C42" s="1" t="str">
+      <c r="B42" t="str">
+        <v>14009|17756|9156</v>
+      </c>
+      <c r="C42" s="3" t="str">
         <v>1|1|1</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="43">
-      <c r="A43" s="1">
+      <c r="A43" s="3">
         <v>30008</v>
       </c>
-      <c r="B43" s="1" t="str">
-        <v>5684|14270|35</v>
-      </c>
-      <c r="C43" s="1" t="str">
+      <c r="B43" t="str">
+        <v>15944|18491|9116</v>
+      </c>
+      <c r="C43" s="3" t="str">
         <v>1|1|1</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="44">
-      <c r="A44" s="1">
+      <c r="A44" s="3">
         <v>30009</v>
       </c>
-      <c r="B44" s="1" t="str">
-        <v>1694|13495|35</v>
-      </c>
-      <c r="C44" s="1" t="str">
+      <c r="B44" t="str">
+        <v>15927|16319|9148</v>
+      </c>
+      <c r="C44" s="3" t="str">
         <v>1|1|1</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="45">
-      <c r="A45" s="1">
+      <c r="A45" s="3">
         <v>30010</v>
       </c>
-      <c r="B45" s="1" t="str">
-        <v>3512|11796|35</v>
-      </c>
-      <c r="C45" s="1" t="str">
+      <c r="B45" t="str">
+        <v>17963|15493|9117</v>
+      </c>
+      <c r="C45" s="3" t="str">
         <v>1|1|1</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="46">
-      <c r="A46" s="1">
+      <c r="A46" s="3">
         <v>30011</v>
       </c>
-      <c r="B46" s="1" t="str">
-        <v>4113|11831|35</v>
-      </c>
-      <c r="C46" s="1" t="str">
+      <c r="B46" t="str">
+        <v>17893|13397|9116</v>
+      </c>
+      <c r="C46" s="3" t="str">
         <v>1|1|1</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="47">
-      <c r="A47" s="1">
+      <c r="A47" s="3">
         <v>30012</v>
       </c>
-      <c r="B47" s="1" t="str">
-        <v>3111|12086|35</v>
-      </c>
-      <c r="C47" s="1" t="str">
+      <c r="B47" t="str">
+        <v>15935|13355|9121</v>
+      </c>
+      <c r="C47" s="3" t="str">
         <v>1|1|1</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="48">
-      <c r="A48" s="1">
+      <c r="A48" s="3">
         <v>30013</v>
       </c>
-      <c r="B48" s="1" t="str">
-        <v>1496|12493|35</v>
-      </c>
-      <c r="C48" s="1" t="str">
+      <c r="B48" t="str">
+        <v>15631|9593|9121</v>
+      </c>
+      <c r="C48" s="3" t="str">
         <v>1|1|1</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="49">
-      <c r="A49" s="1">
+      <c r="A49" s="3">
         <v>30014</v>
       </c>
-      <c r="B49" s="1" t="str">
-        <v>2141|11850|35</v>
-      </c>
-      <c r="C49" s="1" t="str">
+      <c r="B49" t="str">
+        <v>13474|14838|9205</v>
+      </c>
+      <c r="C49" s="3" t="str">
         <v>1|1|1</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="50">
-      <c r="A50" s="1">
+      <c r="A50" s="3">
         <v>30015</v>
       </c>
-      <c r="B50" s="1" t="str">
-        <v>899|11993|35</v>
-      </c>
-      <c r="C50" s="1" t="str">
+      <c r="B50" t="str">
+        <v>11401|15249|10848</v>
+      </c>
+      <c r="C50" s="3" t="str">
         <v>1|1|1</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="51">
-      <c r="A51" s="1">
+      <c r="A51" s="3">
         <v>30016</v>
       </c>
-      <c r="B51" s="1" t="str">
-        <v>1257|13326|35</v>
-      </c>
-      <c r="C51" s="1" t="str">
+      <c r="B51" t="str">
+        <v>13748|16219|9153</v>
+      </c>
+      <c r="C51" s="3" t="str">
         <v>1|1|1</v>
       </c>
     </row>

--- a/wolf/Excel/AIWayPoint_AI路点表.xlsx
+++ b/wolf/Excel/AIWayPoint_AI路点表.xlsx
@@ -34,7 +34,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -59,20 +59,6 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF1F2329"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -149,7 +135,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
@@ -158,10 +144,10 @@
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="2" fontId="5" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -568,11 +554,11 @@
       <c r="A6">
         <v>10001</v>
       </c>
-      <c r="B6" t="str">
-        <v>480|400|760</v>
+      <c r="B6" s="2" t="str">
+        <v>2964|463|-20</v>
       </c>
       <c r="C6" t="str">
-        <v>8|6|1</v>
+        <v>5|5|1</v>
       </c>
       <c r="D6" t="str"/>
     </row>
@@ -580,107 +566,107 @@
       <c r="A7">
         <v>10002</v>
       </c>
-      <c r="B7" t="str">
-        <v>-405|350|760</v>
+      <c r="B7" s="2" t="str">
+        <v>2236|1057|-20</v>
       </c>
       <c r="C7" t="str">
-        <v>9|6|1</v>
+        <v>4|12|1</v>
       </c>
       <c r="D7" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="8">
-      <c r="A8" s="5">
+      <c r="A8" s="1">
         <v>10003</v>
       </c>
-      <c r="B8" t="str">
-        <v>-710|900|760</v>
+      <c r="B8" s="2" t="str">
+        <v>2116|-838|-20</v>
       </c>
       <c r="C8" t="str">
-        <v>3|2.4|1</v>
+        <v>4|4|1</v>
       </c>
       <c r="D8" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="9">
-      <c r="A9" s="5">
+      <c r="A9" s="1">
         <v>10004</v>
       </c>
-      <c r="B9" t="str">
-        <v>700|895|760</v>
+      <c r="B9" s="2" t="str">
+        <v>3138|-1600|-20</v>
       </c>
       <c r="C9" t="str">
-        <v>3|2.4|1</v>
+        <v>2.5|10|1</v>
       </c>
       <c r="D9" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="10">
-      <c r="A10" s="5">
+      <c r="A10" s="1">
         <v>10005</v>
       </c>
-      <c r="B10" t="str">
-        <v>-760|2040|820</v>
+      <c r="B10" s="2" t="str">
+        <v>3173|-392|-20</v>
       </c>
       <c r="C10" t="str">
-        <v>2|5|1</v>
+        <v>2|7|1</v>
       </c>
       <c r="D10" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="11">
-      <c r="A11" s="1">
+      <c r="A11" s="5">
         <v>10006</v>
       </c>
-      <c r="B11" t="str">
-        <v>1235|1900|760</v>
+      <c r="B11" s="2" t="str">
+        <v>969|-25|-20</v>
       </c>
       <c r="C11" t="str">
-        <v>4|10|1</v>
+        <v>5.5|13|1</v>
       </c>
       <c r="D11" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="12">
-      <c r="A12" s="1">
+      <c r="A12" s="5">
         <v>10007</v>
       </c>
       <c r="B12" t="str">
-        <v>485|2815|760</v>
+        <v>-314|305|-20</v>
       </c>
       <c r="C12" t="str">
-        <v>6|6|1</v>
+        <v>10|3|1</v>
       </c>
       <c r="D12" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="13">
-      <c r="A13" s="5">
+      <c r="A13" s="1">
         <v>10008</v>
       </c>
       <c r="B13" t="str">
-        <v>-725|4400|820</v>
+        <v>-347|-331|-20</v>
       </c>
       <c r="C13" t="str">
-        <v>2|5|1</v>
+        <v>10|3|1</v>
       </c>
       <c r="D13" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="14">
-      <c r="A14" s="1">
+      <c r="A14" s="5">
         <v>10009</v>
       </c>
       <c r="B14" t="str">
-        <v>-145|3745|760</v>
+        <v>1239|-1127|-20</v>
       </c>
       <c r="C14" t="str">
-        <v>1|5|1</v>
+        <v>3|3|1</v>
       </c>
       <c r="D14" t="str"/>
     </row>
     <row customHeight="true" ht="23" r="15">
-      <c r="A15" s="5">
+      <c r="A15" s="1">
         <v>10010</v>
       </c>
       <c r="B15" t="str">
-        <v>1150|2760|760</v>
+        <v>-1422|-1242|-20</v>
       </c>
       <c r="C15" t="str">
-        <v>4|5|1</v>
+        <v>3|3|1</v>
       </c>
       <c r="D15" t="str"/>
     </row>
@@ -689,10 +675,10 @@
         <v>10011</v>
       </c>
       <c r="B16" t="str">
-        <v>1465|5060|760</v>
+        <v>-1141|1462|-20</v>
       </c>
       <c r="C16" t="str">
-        <v>6|10|1</v>
+        <v>5|5|1</v>
       </c>
       <c r="D16" t="str"/>
     </row>
@@ -701,10 +687,10 @@
         <v>10012</v>
       </c>
       <c r="B17" t="str">
-        <v>1930|5110|760</v>
+        <v>1159|1041|-20</v>
       </c>
       <c r="C17" t="str">
-        <v>2|6|1</v>
+        <v>2|2|1</v>
       </c>
       <c r="D17" t="str"/>
     </row>
@@ -713,10 +699,10 @@
         <v>10013</v>
       </c>
       <c r="B18" t="str">
-        <v>1280|4215|410</v>
+        <v>-3204|-112|-20</v>
       </c>
       <c r="C18" t="str">
-        <v>2|2|1</v>
+        <v>3|35|1</v>
       </c>
       <c r="D18" t="str"/>
     </row>
@@ -725,10 +711,10 @@
         <v>10014</v>
       </c>
       <c r="B19" t="str">
-        <v>1355|3780|410</v>
+        <v>-4560|-133|-20</v>
       </c>
       <c r="C19" t="str">
-        <v>2|2|1</v>
+        <v>4|15|1</v>
       </c>
       <c r="D19" t="str"/>
     </row>
@@ -745,10 +731,10 @@
         <v>20001</v>
       </c>
       <c r="B21" s="2" t="str">
-        <v>-21450|20000|106</v>
-      </c>
-      <c r="C21" s="2" t="str">
-        <v>4|4|1</v>
+        <v>2964|463|-20</v>
+      </c>
+      <c r="C21" t="str">
+        <v>5|5|1</v>
       </c>
       <c r="D21" s="2"/>
     </row>
@@ -757,10 +743,10 @@
         <v>20002</v>
       </c>
       <c r="B22" s="2" t="str">
-        <v>-20467|20615|103</v>
-      </c>
-      <c r="C22" s="2" t="str">
-        <v>3|3|1</v>
+        <v>2236|1057|-20</v>
+      </c>
+      <c r="C22" t="str">
+        <v>4|12|1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="23">
@@ -768,10 +754,10 @@
         <v>20003</v>
       </c>
       <c r="B23" s="2" t="str">
-        <v>-19671|21137|104</v>
-      </c>
-      <c r="C23" s="2" t="str">
-        <v>2|2|1</v>
+        <v>2116|-838|-20</v>
+      </c>
+      <c r="C23" t="str">
+        <v>4|4|1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="24">
@@ -779,10 +765,10 @@
         <v>20004</v>
       </c>
       <c r="B24" s="2" t="str">
-        <v>-19223|20691|103</v>
-      </c>
-      <c r="C24" s="2" t="str">
-        <v>4|4|1</v>
+        <v>3138|-1600|-20</v>
+      </c>
+      <c r="C24" t="str">
+        <v>2.5|10|1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="25">
@@ -790,10 +776,10 @@
         <v>20005</v>
       </c>
       <c r="B25" s="2" t="str">
-        <v>-19844|20423|110</v>
-      </c>
-      <c r="C25" s="2" t="str">
-        <v>4|4|1</v>
+        <v>3173|-392|-20</v>
+      </c>
+      <c r="C25" t="str">
+        <v>2|7|1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="26">
@@ -801,172 +787,172 @@
         <v>20006</v>
       </c>
       <c r="B26" s="2" t="str">
-        <v>-19275|20186|106</v>
+        <v>969|-25|-20</v>
       </c>
       <c r="C26" t="str">
-        <v>2|2|1</v>
+        <v>5.5|13|1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="27">
       <c r="A27">
         <v>20007</v>
       </c>
-      <c r="B27" s="2" t="str">
-        <v>-18427|20049|104</v>
-      </c>
-      <c r="C27" s="2" t="str">
-        <v>1|1|1</v>
+      <c r="B27" t="str">
+        <v>-314|305|-20</v>
+      </c>
+      <c r="C27" t="str">
+        <v>10|3|1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="28">
       <c r="A28">
         <v>20008</v>
       </c>
-      <c r="B28" s="2" t="str">
-        <v>-19442|19417|103</v>
-      </c>
-      <c r="C28" s="2" t="str">
-        <v>1|1|1</v>
+      <c r="B28" t="str">
+        <v>-347|-331|-20</v>
+      </c>
+      <c r="C28" t="str">
+        <v>10|3|1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="29">
       <c r="A29">
         <v>20009</v>
       </c>
-      <c r="B29" s="2" t="str">
-        <v>-18947|18825|100</v>
-      </c>
-      <c r="C29" s="2" t="str">
-        <v>1|1|1</v>
+      <c r="B29" t="str">
+        <v>1239|-1127|-20</v>
+      </c>
+      <c r="C29" t="str">
+        <v>3|3|1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="30">
       <c r="A30">
         <v>20010</v>
       </c>
-      <c r="B30" s="2" t="str">
-        <v>-21192|19129|210</v>
-      </c>
-      <c r="C30" s="2" t="str">
-        <v>1|1|1</v>
+      <c r="B30" t="str">
+        <v>-1422|-1242|-20</v>
+      </c>
+      <c r="C30" t="str">
+        <v>3|3|1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="31">
       <c r="A31">
         <v>20011</v>
       </c>
-      <c r="B31" s="2" t="str">
-        <v>-20680|19789|109</v>
-      </c>
-      <c r="C31" s="2" t="str">
-        <v>3|3|1</v>
+      <c r="B31" t="str">
+        <v>-1141|1462|-20</v>
+      </c>
+      <c r="C31" t="str">
+        <v>5|5|1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="32">
       <c r="A32">
         <v>20012</v>
       </c>
-      <c r="B32" s="2" t="str">
-        <v>-19995|19649|106</v>
-      </c>
-      <c r="C32" s="2" t="str">
-        <v>3|3|1</v>
+      <c r="B32" t="str">
+        <v>1159|1041|-20</v>
+      </c>
+      <c r="C32" t="str">
+        <v>2|2|1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="33">
       <c r="A33">
         <v>20013</v>
       </c>
-      <c r="B33" s="2" t="str">
-        <v>-20067|19034|107</v>
-      </c>
-      <c r="C33" s="2" t="str">
-        <v>1|1|1</v>
+      <c r="B33" t="str">
+        <v>-3204|-112|-20</v>
+      </c>
+      <c r="C33" t="str">
+        <v>3|35|1</v>
       </c>
     </row>
     <row customHeight="true" ht="23" r="34">
       <c r="A34">
         <v>20014</v>
       </c>
-      <c r="B34" s="2" t="str">
-        <v>-20300|20089|106</v>
-      </c>
-      <c r="C34" s="2" t="str">
-        <v>1|1|1</v>
+      <c r="B34" t="str">
+        <v>-4560|-133|-20</v>
+      </c>
+      <c r="C34" t="str">
+        <v>4|15|1</v>
       </c>
     </row>
     <row customHeight="true" ht="24" r="35">
       <c r="A35" s="3">
         <v>30000</v>
       </c>
-      <c r="D35" s="3">
-        <v>16</v>
+      <c r="D35">
+        <v>14</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="36">
       <c r="A36" s="3">
         <v>30001</v>
       </c>
-      <c r="B36" t="str">
-        <v>11244|12584|9343</v>
-      </c>
-      <c r="C36" s="3" t="str">
-        <v>1|1|1</v>
+      <c r="B36" s="2" t="str">
+        <v>2964|463|-20</v>
+      </c>
+      <c r="C36" t="str">
+        <v>5|5|1</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="37">
       <c r="A37" s="3">
         <v>30002</v>
       </c>
-      <c r="B37" t="str">
-        <v>12728|14125|9124</v>
-      </c>
-      <c r="C37" s="3" t="str">
-        <v>1|1|1</v>
+      <c r="B37" s="2" t="str">
+        <v>2236|1057|-20</v>
+      </c>
+      <c r="C37" t="str">
+        <v>4|12|1</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="38">
       <c r="A38" s="3">
         <v>30003</v>
       </c>
-      <c r="B38" t="str">
-        <v>11924|14680|11593</v>
-      </c>
-      <c r="C38" s="3" t="str">
-        <v>1|1|1</v>
+      <c r="B38" s="2" t="str">
+        <v>2116|-838|-20</v>
+      </c>
+      <c r="C38" t="str">
+        <v>4|4|1</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="39">
       <c r="A39" s="3">
         <v>30004</v>
       </c>
-      <c r="B39" t="str">
-        <v>14056|12188|11593</v>
-      </c>
-      <c r="C39" s="3" t="str">
-        <v>1|1|1</v>
+      <c r="B39" s="2" t="str">
+        <v>3138|-1600|-20</v>
+      </c>
+      <c r="C39" t="str">
+        <v>2.5|10|1</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="40">
       <c r="A40" s="3">
         <v>30005</v>
       </c>
-      <c r="B40" t="str">
-        <v>11062|16477|9121</v>
-      </c>
-      <c r="C40" s="3" t="str">
-        <v>1|1|1</v>
+      <c r="B40" s="2" t="str">
+        <v>3173|-392|-20</v>
+      </c>
+      <c r="C40" t="str">
+        <v>2|7|1</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="41">
       <c r="A41" s="3">
         <v>30006</v>
       </c>
-      <c r="B41" t="str">
-        <v>13429|18672|9119</v>
-      </c>
-      <c r="C41" s="3" t="str">
-        <v>1|1|1</v>
+      <c r="B41" s="2" t="str">
+        <v>969|-25|-20</v>
+      </c>
+      <c r="C41" t="str">
+        <v>5.5|13|1</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="42">
@@ -974,10 +960,10 @@
         <v>30007</v>
       </c>
       <c r="B42" t="str">
-        <v>14009|17756|9156</v>
-      </c>
-      <c r="C42" s="3" t="str">
-        <v>1|1|1</v>
+        <v>-314|305|-20</v>
+      </c>
+      <c r="C42" t="str">
+        <v>10|3|1</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="43">
@@ -985,10 +971,10 @@
         <v>30008</v>
       </c>
       <c r="B43" t="str">
-        <v>15944|18491|9116</v>
-      </c>
-      <c r="C43" s="3" t="str">
-        <v>1|1|1</v>
+        <v>-347|-331|-20</v>
+      </c>
+      <c r="C43" t="str">
+        <v>10|3|1</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="44">
@@ -996,10 +982,10 @@
         <v>30009</v>
       </c>
       <c r="B44" t="str">
-        <v>15927|16319|9148</v>
-      </c>
-      <c r="C44" s="3" t="str">
-        <v>1|1|1</v>
+        <v>1239|-1127|-20</v>
+      </c>
+      <c r="C44" t="str">
+        <v>3|3|1</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="45">
@@ -1007,10 +993,10 @@
         <v>30010</v>
       </c>
       <c r="B45" t="str">
-        <v>17963|15493|9117</v>
-      </c>
-      <c r="C45" s="3" t="str">
-        <v>1|1|1</v>
+        <v>-1422|-1242|-20</v>
+      </c>
+      <c r="C45" t="str">
+        <v>3|3|1</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="46">
@@ -1018,10 +1004,10 @@
         <v>30011</v>
       </c>
       <c r="B46" t="str">
-        <v>17893|13397|9116</v>
-      </c>
-      <c r="C46" s="3" t="str">
-        <v>1|1|1</v>
+        <v>-1141|1462|-20</v>
+      </c>
+      <c r="C46" t="str">
+        <v>5|5|1</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="47">
@@ -1029,10 +1015,10 @@
         <v>30012</v>
       </c>
       <c r="B47" t="str">
-        <v>15935|13355|9121</v>
-      </c>
-      <c r="C47" s="3" t="str">
-        <v>1|1|1</v>
+        <v>1159|1041|-20</v>
+      </c>
+      <c r="C47" t="str">
+        <v>2|2|1</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="48">
@@ -1040,10 +1026,10 @@
         <v>30013</v>
       </c>
       <c r="B48" t="str">
-        <v>15631|9593|9121</v>
-      </c>
-      <c r="C48" s="3" t="str">
-        <v>1|1|1</v>
+        <v>-3204|-112|-20</v>
+      </c>
+      <c r="C48" t="str">
+        <v>3|35|1</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="49">
@@ -1051,33 +1037,19 @@
         <v>30014</v>
       </c>
       <c r="B49" t="str">
-        <v>13474|14838|9205</v>
-      </c>
-      <c r="C49" s="3" t="str">
-        <v>1|1|1</v>
+        <v>-4560|-133|-20</v>
+      </c>
+      <c r="C49" t="str">
+        <v>4|15|1</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="50">
-      <c r="A50" s="3">
-        <v>30015</v>
-      </c>
-      <c r="B50" t="str">
-        <v>11401|15249|10848</v>
-      </c>
-      <c r="C50" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A50" s="3"/>
+      <c r="C50" s="3"/>
     </row>
     <row customHeight="true" ht="21" r="51">
-      <c r="A51" s="3">
-        <v>30016</v>
-      </c>
-      <c r="B51" t="str">
-        <v>13748|16219|9153</v>
-      </c>
-      <c r="C51" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
+      <c r="A51" s="3"/>
+      <c r="C51" s="3"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/wolf/Excel/AIWayPoint_AI路点表.xlsx
+++ b/wolf/Excel/AIWayPoint_AI路点表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="23040" windowHeight="9015"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,16 +62,16 @@
     <t/>
   </si>
   <si>
-    <t>480|400|760</t>
-  </si>
-  <si>
-    <t>8|6|1</t>
-  </si>
-  <si>
-    <t>-405|350|760</t>
-  </si>
-  <si>
-    <t>9|6|1</t>
+    <t>X=-7230 Y=-1800 Z=250</t>
+  </si>
+  <si>
+    <t>X=2 Y=20 Z=1</t>
+  </si>
+  <si>
+    <t>X=-7230 Y=700 Z=250</t>
+  </si>
+  <si>
+    <t>X=2 Y=22 Z=1</t>
   </si>
   <si>
     <t>-710|900|760</t>
@@ -948,7 +948,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1275,16 +1275,17 @@
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="4" width="16" customWidth="1"/>
+    <col min="2" max="2" width="31.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="39.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="20" width="15" customWidth="1"/>
   </cols>
   <sheetData>

--- a/wolf/Excel/AIWayPoint_AI路点表.xlsx
+++ b/wolf/Excel/AIWayPoint_AI路点表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="57">
   <si>
     <t>Int</t>
   </si>
@@ -62,205 +62,142 @@
     <t/>
   </si>
   <si>
-    <t>X=-7230 Y=-1800 Z=250</t>
-  </si>
-  <si>
-    <t>X=2 Y=20 Z=1</t>
-  </si>
-  <si>
-    <t>X=-7230 Y=700 Z=250</t>
-  </si>
-  <si>
-    <t>X=2 Y=22 Z=1</t>
-  </si>
-  <si>
-    <t>-710|900|760</t>
-  </si>
-  <si>
-    <t>3|2.4|1</t>
-  </si>
-  <si>
-    <t>700|895|760</t>
-  </si>
-  <si>
-    <t>-760|2040|820</t>
-  </si>
-  <si>
-    <t>2|5|1</t>
-  </si>
-  <si>
-    <t>1235|1900|760</t>
-  </si>
-  <si>
-    <t>4|10|1</t>
-  </si>
-  <si>
-    <t>485|2815|760</t>
-  </si>
-  <si>
-    <t>6|6|1</t>
-  </si>
-  <si>
-    <t>-725|4400|820</t>
-  </si>
-  <si>
-    <t>-145|3745|760</t>
-  </si>
-  <si>
-    <t>1|5|1</t>
-  </si>
-  <si>
-    <t>1150|2760|760</t>
-  </si>
-  <si>
-    <t>4|5|1</t>
-  </si>
-  <si>
-    <t>1465|5060|760</t>
-  </si>
-  <si>
-    <t>6|10|1</t>
-  </si>
-  <si>
-    <t>1930|5110|760</t>
-  </si>
-  <si>
-    <t>2|6|1</t>
-  </si>
-  <si>
-    <t>1280|4215|410</t>
-  </si>
-  <si>
-    <t>2|2|1</t>
-  </si>
-  <si>
-    <t>1355|3780|410</t>
-  </si>
-  <si>
-    <t>-21450|20000|106</t>
+    <t>-7230|-1800|241</t>
+  </si>
+  <si>
+    <t>2|20|1</t>
+  </si>
+  <si>
+    <t>-7230|700|241</t>
+  </si>
+  <si>
+    <t>2|22|1</t>
+  </si>
+  <si>
+    <t>-6730|-2490|241</t>
+  </si>
+  <si>
+    <t>7|6|1</t>
+  </si>
+  <si>
+    <t>-5800|-2570|241</t>
+  </si>
+  <si>
+    <t>5|5|1</t>
+  </si>
+  <si>
+    <t>-4000|-2600|241</t>
+  </si>
+  <si>
+    <t>14|4|1</t>
+  </si>
+  <si>
+    <t>-5124|-2342|241</t>
+  </si>
+  <si>
+    <t>8|2.5|1</t>
+  </si>
+  <si>
+    <t>-1060|-280|241</t>
+  </si>
+  <si>
+    <t>6|22|1</t>
+  </si>
+  <si>
+    <t>-2374|-2358|241</t>
+  </si>
+  <si>
+    <t>6|3|1</t>
+  </si>
+  <si>
+    <t>-1394|-1783|241</t>
   </si>
   <si>
     <t>4|4|1</t>
   </si>
   <si>
-    <t>-20467|20615|103</t>
+    <t>-1647|-624|241</t>
+  </si>
+  <si>
+    <t>-1652|966|241</t>
+  </si>
+  <si>
+    <t>5|4|1</t>
+  </si>
+  <si>
+    <t>-2899|1824|241</t>
+  </si>
+  <si>
+    <t>12|3.5|1</t>
+  </si>
+  <si>
+    <t>-2112|-60|241</t>
+  </si>
+  <si>
+    <t>2|40|1</t>
+  </si>
+  <si>
+    <t>-4465|2023|241</t>
+  </si>
+  <si>
+    <t>12|3|1</t>
+  </si>
+  <si>
+    <t>-6678|1872|241</t>
+  </si>
+  <si>
+    <t>-3319|-313|241</t>
+  </si>
+  <si>
+    <t>6|12|1</t>
+  </si>
+  <si>
+    <t>-3555|733|241</t>
+  </si>
+  <si>
+    <t>2|7|1</t>
+  </si>
+  <si>
+    <t>-4732|1014|241</t>
+  </si>
+  <si>
+    <t>4|3|1</t>
+  </si>
+  <si>
+    <t>-5688|1011|241</t>
+  </si>
+  <si>
+    <t>7|2|1</t>
+  </si>
+  <si>
+    <t>-3857|-1605|241</t>
+  </si>
+  <si>
+    <t>8|3|1</t>
+  </si>
+  <si>
+    <t>-5039|-1651|241</t>
+  </si>
+  <si>
+    <t>10|2|1</t>
+  </si>
+  <si>
+    <t>-6341|617|241</t>
   </si>
   <si>
     <t>3|3|1</t>
   </si>
   <si>
-    <t>-19671|21137|104</t>
-  </si>
-  <si>
-    <t>-19223|20691|103</t>
-  </si>
-  <si>
-    <t>-19844|20423|110</t>
-  </si>
-  <si>
-    <t>-19275|20186|106</t>
-  </si>
-  <si>
-    <t>-18427|20049|104</t>
-  </si>
-  <si>
-    <t>1|1|1</t>
-  </si>
-  <si>
-    <t>-19442|19417|103</t>
-  </si>
-  <si>
-    <t>-18947|18825|100</t>
-  </si>
-  <si>
-    <t>-21192|19129|210</t>
-  </si>
-  <si>
-    <t>-20680|19789|109</t>
-  </si>
-  <si>
-    <t>-19995|19649|106</t>
-  </si>
-  <si>
-    <t>-20067|19034|107</t>
-  </si>
-  <si>
-    <t>-20300|20089|106</t>
-  </si>
-  <si>
-    <t>-11330|11295|65</t>
-  </si>
-  <si>
-    <t>5|6|1</t>
-  </si>
-  <si>
-    <t>-11330|12070|65</t>
-  </si>
-  <si>
-    <t>5|9|1</t>
-  </si>
-  <si>
-    <t>-11155|13270|65</t>
-  </si>
-  <si>
-    <t>5|4|1</t>
-  </si>
-  <si>
-    <t>-10585|14065|65</t>
-  </si>
-  <si>
-    <t>2|3|1</t>
-  </si>
-  <si>
-    <t>-10185|14460|75</t>
-  </si>
-  <si>
-    <t>2|1|1</t>
-  </si>
-  <si>
-    <t>-11825|13915|65</t>
-  </si>
-  <si>
-    <t>-13460|14145|90</t>
-  </si>
-  <si>
-    <t>7|3|1</t>
-  </si>
-  <si>
-    <t>-13955|13325|90</t>
-  </si>
-  <si>
-    <t>1|3|1</t>
-  </si>
-  <si>
-    <t>-13610|11495|90</t>
-  </si>
-  <si>
-    <t>6|2|1</t>
-  </si>
-  <si>
-    <t>-12900|11510|95</t>
-  </si>
-  <si>
-    <t>-12750|10550|65</t>
-  </si>
-  <si>
-    <t>1|2|1</t>
-  </si>
-  <si>
-    <t>-9845|12185|65</t>
-  </si>
-  <si>
-    <t>1|7|1</t>
-  </si>
-  <si>
-    <t>-13560|13125|90</t>
-  </si>
-  <si>
-    <t>-12045|12480|90</t>
-  </si>
-  <si>
-    <t>0.5|1|1</t>
+    <t>-6506|-141|241</t>
+  </si>
+  <si>
+    <t>5|3|1</t>
+  </si>
+  <si>
+    <t>-6175|-1585|241</t>
+  </si>
+  <si>
+    <t>-6499|-986|241</t>
   </si>
 </sst>
 </file>
@@ -273,7 +210,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -287,26 +224,6 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF1F2329"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -460,7 +377,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -469,12 +386,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF258"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -660,27 +571,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDEE0E3"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFDEE0E3"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFDEE0E3"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFDEE0E3"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -784,19 +680,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -805,150 +713,126 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1272,12 +1156,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" outlineLevelCol="3"/>
@@ -1343,7 +1227,7 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" ht="23" customHeight="1" spans="1:4">
@@ -1375,7 +1259,7 @@
       </c>
     </row>
     <row r="8" ht="23" customHeight="1" spans="1:4">
-      <c r="A8" s="2">
+      <c r="A8">
         <v>10003</v>
       </c>
       <c r="B8" t="s">
@@ -1389,95 +1273,95 @@
       </c>
     </row>
     <row r="9" ht="23" customHeight="1" spans="1:4">
-      <c r="A9" s="2">
+      <c r="A9">
         <v>10004</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" ht="23" customHeight="1" spans="1:4">
-      <c r="A10" s="2">
+      <c r="A10">
         <v>10005</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" ht="23" customHeight="1" spans="1:4">
-      <c r="A11" s="3">
+      <c r="A11">
         <v>10006</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" ht="23" customHeight="1" spans="1:4">
-      <c r="A12" s="3">
+      <c r="A12">
         <v>10007</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" ht="23" customHeight="1" spans="1:4">
-      <c r="A13" s="2">
+      <c r="A13">
         <v>10008</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" ht="23" customHeight="1" spans="1:4">
-      <c r="A14" s="3">
+      <c r="A14">
         <v>10009</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" ht="23" customHeight="1" spans="1:4">
-      <c r="A15" s="2">
+      <c r="A15">
         <v>10010</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1491,10 +1375,10 @@
         <v>10011</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -1505,10 +1389,10 @@
         <v>10012</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
@@ -1519,10 +1403,10 @@
         <v>10013</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
@@ -1533,349 +1417,797 @@
         <v>10014</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" ht="23" customHeight="1" spans="1:4">
+    <row r="20" ht="23" customHeight="1" spans="1:3">
       <c r="A20">
-        <v>20000</v>
-      </c>
-      <c r="D20">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" ht="23" customHeight="1" spans="1:4">
+        <v>10015</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" ht="23" customHeight="1" spans="1:3">
       <c r="A21">
-        <v>20001</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="4"/>
+        <v>10016</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="22" ht="23" customHeight="1" spans="1:3">
       <c r="A22">
-        <v>20002</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>39</v>
+        <v>10017</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="23" ht="23" customHeight="1" spans="1:3">
       <c r="A23">
-        <v>20003</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>34</v>
+        <v>10018</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="24" ht="23" customHeight="1" spans="1:3">
       <c r="A24">
-        <v>20004</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>37</v>
+        <v>10019</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="25" ht="23" customHeight="1" spans="1:3">
       <c r="A25">
-        <v>20005</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>37</v>
+        <v>10020</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="26" ht="23" customHeight="1" spans="1:3">
       <c r="A26">
-        <v>20006</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>43</v>
+        <v>10021</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" ht="23" customHeight="1" spans="1:3">
       <c r="A27">
-        <v>20007</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>45</v>
+        <v>10022</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="28" ht="23" customHeight="1" spans="1:3">
       <c r="A28">
-        <v>20008</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>45</v>
+        <v>10023</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="29" ht="23" customHeight="1" spans="1:3">
       <c r="A29">
-        <v>20009</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>45</v>
+        <v>10024</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="30" ht="23" customHeight="1" spans="1:3">
       <c r="A30">
+        <v>10025</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" ht="23" customHeight="1" spans="1:4">
+      <c r="A31">
+        <v>20000</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" ht="23" customHeight="1" spans="1:4">
+      <c r="A32">
+        <v>20001</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" ht="23" customHeight="1" spans="1:4">
+      <c r="A33">
+        <v>20002</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" ht="23" customHeight="1" spans="1:4">
+      <c r="A34">
+        <v>20003</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" ht="23" customHeight="1" spans="1:4">
+      <c r="A35">
+        <v>20004</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" ht="23" customHeight="1" spans="1:4">
+      <c r="A36">
+        <v>20005</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" ht="23" customHeight="1" spans="1:4">
+      <c r="A37">
+        <v>20006</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" ht="23" customHeight="1" spans="1:4">
+      <c r="A38">
+        <v>20007</v>
+      </c>
+      <c r="B38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" ht="23" customHeight="1" spans="1:4">
+      <c r="A39">
+        <v>20008</v>
+      </c>
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" ht="23" customHeight="1" spans="1:4">
+      <c r="A40">
+        <v>20009</v>
+      </c>
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" ht="23" customHeight="1" spans="1:4">
+      <c r="A41">
         <v>20010</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" ht="23" customHeight="1" spans="1:4">
+      <c r="A42">
+        <v>20011</v>
+      </c>
+      <c r="B42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" ht="23" customHeight="1" spans="1:4">
+      <c r="A43">
+        <v>20012</v>
+      </c>
+      <c r="B43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" ht="23" customHeight="1" spans="1:4">
+      <c r="A44">
+        <v>20013</v>
+      </c>
+      <c r="B44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" ht="23" customHeight="1" spans="1:4">
+      <c r="A45">
+        <v>20014</v>
+      </c>
+      <c r="B45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" ht="24" customHeight="1" spans="1:3">
+      <c r="A46">
+        <v>20015</v>
+      </c>
+      <c r="B46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" ht="24" customHeight="1" spans="1:3">
+      <c r="A47">
+        <v>20016</v>
+      </c>
+      <c r="B47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" ht="24" customHeight="1" spans="1:3">
+      <c r="A48">
+        <v>20017</v>
+      </c>
+      <c r="B48" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" ht="24" customHeight="1" spans="1:3">
+      <c r="A49">
+        <v>20018</v>
+      </c>
+      <c r="B49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" ht="24" customHeight="1" spans="1:3">
+      <c r="A50">
+        <v>20019</v>
+      </c>
+      <c r="B50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" ht="24" customHeight="1" spans="1:3">
+      <c r="A51">
+        <v>20020</v>
+      </c>
+      <c r="B51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="4" t="s">
+    </row>
+    <row r="52" ht="24" customHeight="1" spans="1:3">
+      <c r="A52">
+        <v>20021</v>
+      </c>
+      <c r="B52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" ht="24" customHeight="1" spans="1:3">
+      <c r="A53">
+        <v>20022</v>
+      </c>
+      <c r="B53" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" ht="24" customHeight="1" spans="1:3">
+      <c r="A54">
+        <v>20023</v>
+      </c>
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" ht="24" customHeight="1" spans="1:3">
+      <c r="A55">
+        <v>20024</v>
+      </c>
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" ht="24" customHeight="1" spans="1:3">
+      <c r="A56">
+        <v>20025</v>
+      </c>
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" ht="24" customHeight="1" spans="1:4">
+      <c r="A57" s="2">
+        <v>30000</v>
+      </c>
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" ht="21" customHeight="1" spans="1:4">
+      <c r="A58" s="2">
+        <v>30001</v>
+      </c>
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" ht="21" customHeight="1" spans="1:4">
+      <c r="A59" s="2">
+        <v>30002</v>
+      </c>
+      <c r="B59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" ht="21" customHeight="1" spans="1:4">
+      <c r="A60" s="2">
+        <v>30003</v>
+      </c>
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" ht="21" customHeight="1" spans="1:4">
+      <c r="A61" s="2">
+        <v>30004</v>
+      </c>
+      <c r="B61" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" ht="21" customHeight="1" spans="1:4">
+      <c r="A62" s="2">
+        <v>30005</v>
+      </c>
+      <c r="B62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" ht="21" customHeight="1" spans="1:4">
+      <c r="A63" s="2">
+        <v>30006</v>
+      </c>
+      <c r="B63" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" ht="21" customHeight="1" spans="1:4">
+      <c r="A64" s="2">
+        <v>30007</v>
+      </c>
+      <c r="B64" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" ht="21" customHeight="1" spans="1:4">
+      <c r="A65" s="2">
+        <v>30008</v>
+      </c>
+      <c r="B65" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" t="s">
+        <v>26</v>
+      </c>
+      <c r="D65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" ht="21" customHeight="1" spans="1:4">
+      <c r="A66" s="2">
+        <v>30009</v>
+      </c>
+      <c r="B66" t="s">
+        <v>27</v>
+      </c>
+      <c r="C66" t="s">
+        <v>28</v>
+      </c>
+      <c r="D66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" ht="21" customHeight="1" spans="1:4">
+      <c r="A67" s="2">
+        <v>30010</v>
+      </c>
+      <c r="B67" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67" t="s">
+        <v>28</v>
+      </c>
+      <c r="D67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" ht="21" customHeight="1" spans="1:4">
+      <c r="A68" s="2">
+        <v>30011</v>
+      </c>
+      <c r="B68" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68" t="s">
+        <v>31</v>
+      </c>
+      <c r="D68" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" ht="21" customHeight="1" spans="1:4">
+      <c r="A69" s="2">
+        <v>30012</v>
+      </c>
+      <c r="B69" t="s">
+        <v>32</v>
+      </c>
+      <c r="C69" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" ht="21" customHeight="1" spans="1:4">
+      <c r="A70" s="2">
+        <v>30013</v>
+      </c>
+      <c r="B70" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70" t="s">
+        <v>35</v>
+      </c>
+      <c r="D70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" ht="21" customHeight="1" spans="1:4">
+      <c r="A71" s="2">
+        <v>30014</v>
+      </c>
+      <c r="B71" t="s">
+        <v>36</v>
+      </c>
+      <c r="C71" t="s">
+        <v>37</v>
+      </c>
+      <c r="D71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" ht="21" customHeight="1" spans="1:3">
+      <c r="A72" s="2">
+        <v>30015</v>
+      </c>
+      <c r="B72" t="s">
+        <v>38</v>
+      </c>
+      <c r="C72" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" ht="21" customHeight="1" spans="1:3">
+      <c r="A73" s="2">
+        <v>30016</v>
+      </c>
+      <c r="B73" t="s">
+        <v>39</v>
+      </c>
+      <c r="C73" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2">
+        <v>30017</v>
+      </c>
+      <c r="B74" t="s">
+        <v>41</v>
+      </c>
+      <c r="C74" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="2">
+        <v>30018</v>
+      </c>
+      <c r="B75" t="s">
+        <v>43</v>
+      </c>
+      <c r="C75" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2">
+        <v>30019</v>
+      </c>
+      <c r="B76" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="31" ht="23" customHeight="1" spans="1:3">
-      <c r="A31">
-        <v>20011</v>
-      </c>
-      <c r="B31" s="4" t="s">
+      <c r="C76" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2">
+        <v>30020</v>
+      </c>
+      <c r="B77" t="s">
+        <v>47</v>
+      </c>
+      <c r="C77" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2">
+        <v>30021</v>
+      </c>
+      <c r="B78" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" ht="23" customHeight="1" spans="1:3">
-      <c r="A32">
-        <v>20012</v>
-      </c>
-      <c r="B32" s="4" t="s">
+      <c r="C78" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" ht="23" customHeight="1" spans="1:3">
-      <c r="A33">
-        <v>20013</v>
-      </c>
-      <c r="B33" s="4" t="s">
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="2">
+        <v>30022</v>
+      </c>
+      <c r="B79" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" ht="23" customHeight="1" spans="1:3">
-      <c r="A34">
-        <v>20014</v>
-      </c>
-      <c r="B34" s="4" t="s">
+      <c r="C79" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" ht="24" customHeight="1" spans="1:4">
-      <c r="A35" s="5">
-        <v>30000</v>
-      </c>
-      <c r="D35" s="5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" ht="21" customHeight="1" spans="1:3">
-      <c r="A36" s="5">
-        <v>30001</v>
-      </c>
-      <c r="B36" s="6" t="s">
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2">
+        <v>30023</v>
+      </c>
+      <c r="B80" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C80" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="37" ht="21" customHeight="1" spans="1:3">
-      <c r="A37" s="5">
-        <v>30002</v>
-      </c>
-      <c r="B37" s="6" t="s">
+    <row r="81" spans="1:3">
+      <c r="A81" s="2">
+        <v>30024</v>
+      </c>
+      <c r="B81" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C81" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2">
+        <v>30025</v>
+      </c>
+      <c r="B82" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="38" ht="21" customHeight="1" spans="1:3">
-      <c r="A38" s="5">
-        <v>30003</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" ht="21" customHeight="1" spans="1:3">
-      <c r="A39" s="5">
-        <v>30004</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" ht="21" customHeight="1" spans="1:3">
-      <c r="A40" s="5">
-        <v>30005</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" ht="21" customHeight="1" spans="1:3">
-      <c r="A41" s="5">
-        <v>30006</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" ht="21" customHeight="1" spans="1:3">
-      <c r="A42" s="5">
-        <v>30007</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" ht="21" customHeight="1" spans="1:3">
-      <c r="A43" s="5">
-        <v>30008</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" ht="21" customHeight="1" spans="1:3">
-      <c r="A44" s="5">
-        <v>30009</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" ht="21" customHeight="1" spans="1:3">
-      <c r="A45" s="5">
-        <v>30010</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" ht="21" customHeight="1" spans="1:3">
-      <c r="A46" s="5">
-        <v>30011</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" ht="21" customHeight="1" spans="1:3">
-      <c r="A47" s="5">
-        <v>30012</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" ht="21" customHeight="1" spans="1:3">
-      <c r="A48" s="5">
-        <v>30013</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" ht="21" customHeight="1" spans="1:3">
-      <c r="A49" s="5">
-        <v>30014</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" ht="21" customHeight="1" spans="1:3">
-      <c r="A50" s="5"/>
-      <c r="B50"/>
-      <c r="C50" s="5"/>
-    </row>
-    <row r="51" ht="21" customHeight="1" spans="1:3">
-      <c r="A51" s="5"/>
-      <c r="B51"/>
-      <c r="C51" s="5"/>
+      <c r="C82" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/wolf/Excel/AIWayPoint_AI路点表.xlsx
+++ b/wolf/Excel/AIWayPoint_AI路点表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="102">
   <si>
     <t>Int</t>
   </si>
@@ -198,6 +198,141 @@
   </si>
   <si>
     <t>-6499|-986|241</t>
+  </si>
+  <si>
+    <t>77831.6015625|77991.15625|287.6199951171875</t>
+  </si>
+  <si>
+    <t>5|5|5</t>
+  </si>
+  <si>
+    <t>77319.578125|78841.5234375|287.55999755859375</t>
+  </si>
+  <si>
+    <t>77258.3828125|79845.296875|287.54998779296875</t>
+  </si>
+  <si>
+    <t>77680.640625|80798.3203125|287.55999755859375</t>
+  </si>
+  <si>
+    <t>78313.1328125|81693.953125|287.6499938964844</t>
+  </si>
+  <si>
+    <t>79236.84375|82319.7578125|287.6099853515625</t>
+  </si>
+  <si>
+    <t>80542.2578125|82219.6015625|287.5400085449219</t>
+  </si>
+  <si>
+    <t>81421.59375|81616.3828125|287.57000732421875</t>
+  </si>
+  <si>
+    <t>82226.296875|80704.2421875|287.5400085449219</t>
+  </si>
+  <si>
+    <t>82529.84375|79402.921875|287.5</t>
+  </si>
+  <si>
+    <t>81791.7265625|78063.1796875|287.54998779296875</t>
+  </si>
+  <si>
+    <t>79953.140625|79934.109375|341.75</t>
+  </si>
+  <si>
+    <t>78716.609375|79977.7734375|343.3900146484375</t>
+  </si>
+  <si>
+    <t>80786.3125|80862.3828125|344.1099853515625</t>
+  </si>
+  <si>
+    <t>79465.3125|80633.75|343.7200012207031</t>
+  </si>
+  <si>
+    <t>80994.2109375|78888.9375|344.3299865722656</t>
+  </si>
+  <si>
+    <t>78659.1875|79111.1875|476.4200134277344</t>
+  </si>
+  <si>
+    <t>80353.578125|81175.5078125|349.239990234375</t>
+  </si>
+  <si>
+    <t>81343.0390625|80146.640625|349.239990234375</t>
+  </si>
+  <si>
+    <t>79927.2734375|79034.15625|350.32000732421875</t>
+  </si>
+  <si>
+    <t>79378.8828125|79369.4765625|344.82000732421875</t>
+  </si>
+  <si>
+    <t>79806.90625|78034.796875|287.69000244140625</t>
+  </si>
+  <si>
+    <t>77812.328125|-78648.859375|-12.209999084472656</t>
+  </si>
+  <si>
+    <t>1|1|1</t>
+  </si>
+  <si>
+    <t>80267.6328125|-78657.59375|-12.209999084472656</t>
+  </si>
+  <si>
+    <t>79831.03125|-81335.34375|-12.209999084472656</t>
+  </si>
+  <si>
+    <t>82561.5625|-81333.046875|-12.209999084472656</t>
+  </si>
+  <si>
+    <t>83447.59375|-80313.21875|265.2799987792969</t>
+  </si>
+  <si>
+    <t>83477.6328125|-79428.5|265.2799987792969</t>
+  </si>
+  <si>
+    <t>82853.140625|-79556.703125|269.8999938964844</t>
+  </si>
+  <si>
+    <t>82495.2578125|-80730.15625|269.95001220703125</t>
+  </si>
+  <si>
+    <t>81920.6328125|-80030.1328125|269.95001220703125</t>
+  </si>
+  <si>
+    <t>81906.3671875|-79265.75|269.95001220703125</t>
+  </si>
+  <si>
+    <t>80931.46875|-79531.1171875|270.9599914550781</t>
+  </si>
+  <si>
+    <t>80747.578125|-80490.0703125|270.92999267578125</t>
+  </si>
+  <si>
+    <t>79976.8203125|-80085.46875|269.95001220703125</t>
+  </si>
+  <si>
+    <t>79129.9609375|-79535.328125|270.9599914550781</t>
+  </si>
+  <si>
+    <t>78953.828125|-80473.84375|270.92999267578125</t>
+  </si>
+  <si>
+    <t>77079.2890625|-80458.2421875|269.8699951171875</t>
+  </si>
+  <si>
+    <t>78103.8125|-80486.4296875|270.92999267578125</t>
+  </si>
+  <si>
+    <t>78062.796875|-79558.8828125|270.9599914550781</t>
+  </si>
+  <si>
+    <t>77599.0390625|-79195.4921875|270</t>
+  </si>
+  <si>
+    <t>76483.546875|-79613.34375|265.2799987792969</t>
+  </si>
+  <si>
+    <t>76476.5625|-80769.046875|269.95001220703125</t>
   </si>
 </sst>
 </file>
@@ -1156,12 +1291,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D77" sqref="D77"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" outlineLevelCol="3"/>
@@ -1558,7 +1693,7 @@
         <v>10</v>
       </c>
       <c r="D31">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" ht="23" customHeight="1" spans="1:4">
@@ -1566,10 +1701,10 @@
         <v>20001</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="D32" t="s">
         <v>10</v>
@@ -1580,10 +1715,10 @@
         <v>20002</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="D33" t="s">
         <v>10</v>
@@ -1594,10 +1729,10 @@
         <v>20003</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="D34" t="s">
         <v>10</v>
@@ -1608,10 +1743,10 @@
         <v>20004</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="D35" t="s">
         <v>10</v>
@@ -1622,10 +1757,10 @@
         <v>20005</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="D36" t="s">
         <v>10</v>
@@ -1636,10 +1771,10 @@
         <v>20006</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="C37" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="D37" t="s">
         <v>10</v>
@@ -1650,10 +1785,10 @@
         <v>20007</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="C38" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D38" t="s">
         <v>10</v>
@@ -1664,10 +1799,10 @@
         <v>20008</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="C39" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="D39" t="s">
         <v>10</v>
@@ -1678,10 +1813,10 @@
         <v>20009</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="D40" t="s">
         <v>10</v>
@@ -1692,10 +1827,10 @@
         <v>20010</v>
       </c>
       <c r="B41" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="D41" t="s">
         <v>10</v>
@@ -1706,10 +1841,10 @@
         <v>20011</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="D42" t="s">
         <v>10</v>
@@ -1720,10 +1855,10 @@
         <v>20012</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="D43" t="s">
         <v>10</v>
@@ -1734,10 +1869,10 @@
         <v>20013</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="D44" t="s">
         <v>10</v>
@@ -1748,10 +1883,10 @@
         <v>20014</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="C45" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="D45" t="s">
         <v>10</v>
@@ -1762,10 +1897,10 @@
         <v>20015</v>
       </c>
       <c r="B46" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="C46" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" ht="24" customHeight="1" spans="1:3">
@@ -1773,10 +1908,10 @@
         <v>20016</v>
       </c>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C47" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" ht="24" customHeight="1" spans="1:3">
@@ -1784,10 +1919,10 @@
         <v>20017</v>
       </c>
       <c r="B48" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="C48" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" ht="24" customHeight="1" spans="1:3">
@@ -1795,10 +1930,10 @@
         <v>20018</v>
       </c>
       <c r="B49" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="C49" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" ht="24" customHeight="1" spans="1:3">
@@ -1806,10 +1941,10 @@
         <v>20019</v>
       </c>
       <c r="B50" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="C50" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" ht="24" customHeight="1" spans="1:3">
@@ -1817,10 +1952,10 @@
         <v>20020</v>
       </c>
       <c r="B51" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="C51" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" ht="24" customHeight="1" spans="1:3">
@@ -1828,10 +1963,10 @@
         <v>20021</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="C52" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" ht="24" customHeight="1" spans="1:3">
@@ -1839,68 +1974,77 @@
         <v>20022</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="C53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" ht="24" customHeight="1" spans="1:3">
-      <c r="A54">
-        <v>20023</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" ht="24" customHeight="1" spans="1:4">
+      <c r="A54" s="2">
+        <v>30000</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="C54" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" ht="24" customHeight="1" spans="1:3">
-      <c r="A55">
-        <v>20024</v>
+        <v>10</v>
+      </c>
+      <c r="D54">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" ht="21" customHeight="1" spans="1:4">
+      <c r="A55" s="2">
+        <v>30001</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="C55" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="56" ht="24" customHeight="1" spans="1:3">
-      <c r="A56">
-        <v>20025</v>
+        <v>81</v>
+      </c>
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" ht="21" customHeight="1" spans="1:4">
+      <c r="A56" s="2">
+        <v>30002</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="C56" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="57" ht="24" customHeight="1" spans="1:4">
+        <v>81</v>
+      </c>
+      <c r="D56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" ht="21" customHeight="1" spans="1:4">
       <c r="A57" s="2">
-        <v>30000</v>
+        <v>30003</v>
       </c>
       <c r="B57" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C57" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57">
-        <v>25</v>
+        <v>81</v>
+      </c>
+      <c r="D57" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="58" ht="21" customHeight="1" spans="1:4">
       <c r="A58" s="2">
-        <v>30001</v>
+        <v>30004</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="C58" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D58" t="s">
         <v>10</v>
@@ -1908,13 +2052,13 @@
     </row>
     <row r="59" ht="21" customHeight="1" spans="1:4">
       <c r="A59" s="2">
-        <v>30002</v>
+        <v>30005</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="D59" t="s">
         <v>10</v>
@@ -1922,13 +2066,13 @@
     </row>
     <row r="60" ht="21" customHeight="1" spans="1:4">
       <c r="A60" s="2">
-        <v>30003</v>
+        <v>30006</v>
       </c>
       <c r="B60" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="C60" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="D60" t="s">
         <v>10</v>
@@ -1936,13 +2080,13 @@
     </row>
     <row r="61" ht="21" customHeight="1" spans="1:4">
       <c r="A61" s="2">
-        <v>30004</v>
+        <v>30007</v>
       </c>
       <c r="B61" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="C61" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="D61" t="s">
         <v>10</v>
@@ -1950,13 +2094,13 @@
     </row>
     <row r="62" ht="21" customHeight="1" spans="1:4">
       <c r="A62" s="2">
-        <v>30005</v>
+        <v>30008</v>
       </c>
       <c r="B62" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="C62" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="D62" t="s">
         <v>10</v>
@@ -1964,13 +2108,13 @@
     </row>
     <row r="63" ht="21" customHeight="1" spans="1:4">
       <c r="A63" s="2">
-        <v>30006</v>
+        <v>30009</v>
       </c>
       <c r="B63" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="C63" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="D63" t="s">
         <v>10</v>
@@ -1978,13 +2122,13 @@
     </row>
     <row r="64" ht="21" customHeight="1" spans="1:4">
       <c r="A64" s="2">
-        <v>30007</v>
+        <v>30010</v>
       </c>
       <c r="B64" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="C64" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D64" t="s">
         <v>10</v>
@@ -1992,13 +2136,13 @@
     </row>
     <row r="65" ht="21" customHeight="1" spans="1:4">
       <c r="A65" s="2">
-        <v>30008</v>
+        <v>30011</v>
       </c>
       <c r="B65" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="C65" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="D65" t="s">
         <v>10</v>
@@ -2006,13 +2150,13 @@
     </row>
     <row r="66" ht="21" customHeight="1" spans="1:4">
       <c r="A66" s="2">
-        <v>30009</v>
+        <v>30012</v>
       </c>
       <c r="B66" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="D66" t="s">
         <v>10</v>
@@ -2020,13 +2164,13 @@
     </row>
     <row r="67" ht="21" customHeight="1" spans="1:4">
       <c r="A67" s="2">
-        <v>30010</v>
+        <v>30013</v>
       </c>
       <c r="B67" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="D67" t="s">
         <v>10</v>
@@ -2034,180 +2178,106 @@
     </row>
     <row r="68" ht="21" customHeight="1" spans="1:4">
       <c r="A68" s="2">
-        <v>30011</v>
+        <v>30014</v>
       </c>
       <c r="B68" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="C68" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="D68" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="69" ht="21" customHeight="1" spans="1:4">
+    <row r="69" ht="21" customHeight="1" spans="1:3">
       <c r="A69" s="2">
-        <v>30012</v>
+        <v>30015</v>
       </c>
       <c r="B69" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="C69" t="s">
-        <v>33</v>
-      </c>
-      <c r="D69" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" ht="21" customHeight="1" spans="1:4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" ht="21" customHeight="1" spans="1:3">
       <c r="A70" s="2">
-        <v>30013</v>
+        <v>30016</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="C70" t="s">
-        <v>35</v>
-      </c>
-      <c r="D70" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" ht="21" customHeight="1" spans="1:4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" s="2">
-        <v>30014</v>
+        <v>30017</v>
       </c>
       <c r="B71" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="C71" t="s">
-        <v>37</v>
-      </c>
-      <c r="D71" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" ht="21" customHeight="1" spans="1:3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="2">
-        <v>30015</v>
+        <v>30018</v>
       </c>
       <c r="B72" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="C72" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="73" ht="21" customHeight="1" spans="1:3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" s="2">
-        <v>30016</v>
+        <v>30019</v>
       </c>
       <c r="B73" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="C73" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2">
-        <v>30017</v>
+        <v>30020</v>
       </c>
       <c r="B74" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="C74" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2">
-        <v>30018</v>
+        <v>30021</v>
       </c>
       <c r="B75" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="C75" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="2">
-        <v>30019</v>
-      </c>
-      <c r="B76" t="s">
-        <v>45</v>
-      </c>
-      <c r="C76" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="2">
-        <v>30020</v>
-      </c>
-      <c r="B77" t="s">
-        <v>47</v>
-      </c>
-      <c r="C77" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="2">
-        <v>30021</v>
-      </c>
-      <c r="B78" t="s">
-        <v>49</v>
-      </c>
-      <c r="C78" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="2">
-        <v>30022</v>
-      </c>
-      <c r="B79" t="s">
-        <v>51</v>
-      </c>
-      <c r="C79" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="2">
-        <v>30023</v>
-      </c>
-      <c r="B80" t="s">
-        <v>53</v>
-      </c>
-      <c r="C80" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="2">
-        <v>30024</v>
-      </c>
-      <c r="B81" t="s">
-        <v>55</v>
-      </c>
-      <c r="C81" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="2">
-        <v>30025</v>
-      </c>
-      <c r="B82" t="s">
-        <v>56</v>
-      </c>
-      <c r="C82" t="s">
-        <v>52</v>
-      </c>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="2"/>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="2"/>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="2"/>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
